--- a/AtelierLapin/doc/12_17_クイック発注パネルとマジックナンバー選別決済EA仕様書１０.xlsx
+++ b/AtelierLapin/doc/12_17_クイック発注パネルとマジックナンバー選別決済EA仕様書１０.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shingo\AppData\Roaming\MetaQuotes\Terminal\A0BA7E3FF12928487EFBA3BA88FE6F94\MQL4\Experts\Logic46\AtelierLapin\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7F9F70-9E15-4AC4-97CD-E1319EF233F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C8BCCBA-E16D-4DF7-B17E-F8E97E8D50A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="34800" windowHeight="21240" tabRatio="899" activeTab="2" xr2:uid="{A04E33D3-5A63-44C7-B610-AAFBDE68A915}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="95">
   <si>
     <t>①クイック発注パネルEA画面仕様（MT4）… クイック発注ボタン表示中</t>
     <rPh sb="5" eb="7">
@@ -876,27 +876,23 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>決済待機中です(待機時間…15:00～01:00)⇒00:01</t>
-    <rPh sb="0" eb="5">
-      <t>ケッサイタイキチュウ</t>
-    </rPh>
-    <rPh sb="8" eb="12">
-      <t>タイキジカン</t>
-    </rPh>
+    <t>XAUAUD.ps01</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>決済待機中です(待機時間…24時間)⇒00:01</t>
-    <rPh sb="0" eb="5">
-      <t>ケッサイタイキチュウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ジカン</t>
-    </rPh>
+    <t>XAUUSD.ps01</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>決済中断中です(中断時間…23:00～02:00)⇒00:01</t>
+    <t>XAUEUR.ps01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XAUJPY.ps01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>決済中断中です(中断時間 23:00～02:00) ⇒ 現在時刻 00:01</t>
     <rPh sb="0" eb="2">
       <t>ケッサイ</t>
     </rPh>
@@ -909,8 +905,50 @@
     <rPh sb="8" eb="10">
       <t>チュウダン</t>
     </rPh>
-    <rPh sb="10" eb="13">
-      <t>ジカン･･･</t>
+    <rPh sb="10" eb="12">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="28" eb="32">
+      <t>ゲンザイジコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>決済中断中です(中断時間　23:00～02:00) ⇒ 現在時刻 00:01</t>
+    <rPh sb="0" eb="2">
+      <t>ケッサイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>チュウダン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>チュウダン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>決済待機中です(待機時間 24時間) ⇒ 現在時刻 00:01</t>
+    <rPh sb="0" eb="5">
+      <t>ケッサイタイキチュウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>決済待機中です(待機時間 15:00～01:00) ⇒ 現在時刻 00:01</t>
+    <rPh sb="0" eb="5">
+      <t>ケッサイタイキチュウ</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>タイキジカン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2029,6 +2067,9 @@
     <xf numFmtId="0" fontId="26" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2092,13 +2133,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2118,15 +2165,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2172,8 +2210,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>172385</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>391460</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>114748</xdr:rowOff>
     </xdr:to>
@@ -26001,15 +26039,15 @@
   <sheetData>
     <row r="1" spans="2:8" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:8" s="45" customFormat="1" ht="24" x14ac:dyDescent="0.4">
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
     </row>
     <row r="3" spans="2:8" s="45" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="4" spans="2:8" ht="18.75" x14ac:dyDescent="0.4">
@@ -26895,30 +26933,30 @@
     </row>
     <row r="67" spans="1:23" s="22" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="21"/>
-      <c r="B67" s="84" t="s">
+      <c r="B67" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="C67" s="85"/>
-      <c r="D67" s="85"/>
-      <c r="E67" s="85"/>
-      <c r="F67" s="85"/>
-      <c r="G67" s="86"/>
-      <c r="J67" s="84" t="s">
+      <c r="C67" s="86"/>
+      <c r="D67" s="86"/>
+      <c r="E67" s="86"/>
+      <c r="F67" s="86"/>
+      <c r="G67" s="87"/>
+      <c r="J67" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="K67" s="85"/>
-      <c r="L67" s="85"/>
-      <c r="M67" s="85"/>
-      <c r="N67" s="85"/>
-      <c r="O67" s="86"/>
-      <c r="R67" s="84" t="s">
+      <c r="K67" s="86"/>
+      <c r="L67" s="86"/>
+      <c r="M67" s="86"/>
+      <c r="N67" s="86"/>
+      <c r="O67" s="87"/>
+      <c r="R67" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="S67" s="85"/>
-      <c r="T67" s="85"/>
-      <c r="U67" s="85"/>
-      <c r="V67" s="85"/>
-      <c r="W67" s="86"/>
+      <c r="S67" s="86"/>
+      <c r="T67" s="86"/>
+      <c r="U67" s="86"/>
+      <c r="V67" s="86"/>
+      <c r="W67" s="87"/>
     </row>
     <row r="83" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C83" s="23"/>
@@ -27784,30 +27822,30 @@
     </row>
     <row r="25" spans="1:23" s="22" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="21"/>
-      <c r="B25" s="84" t="s">
+      <c r="B25" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="85"/>
-      <c r="D25" s="85"/>
-      <c r="E25" s="85"/>
-      <c r="F25" s="85"/>
-      <c r="G25" s="86"/>
-      <c r="J25" s="84" t="s">
+      <c r="C25" s="86"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="86"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="87"/>
+      <c r="J25" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="K25" s="85"/>
-      <c r="L25" s="85"/>
-      <c r="M25" s="85"/>
-      <c r="N25" s="85"/>
-      <c r="O25" s="86"/>
-      <c r="R25" s="84" t="s">
+      <c r="K25" s="86"/>
+      <c r="L25" s="86"/>
+      <c r="M25" s="86"/>
+      <c r="N25" s="86"/>
+      <c r="O25" s="87"/>
+      <c r="R25" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="S25" s="85"/>
-      <c r="T25" s="85"/>
-      <c r="U25" s="85"/>
-      <c r="V25" s="85"/>
-      <c r="W25" s="86"/>
+      <c r="S25" s="86"/>
+      <c r="T25" s="86"/>
+      <c r="U25" s="86"/>
+      <c r="V25" s="86"/>
+      <c r="W25" s="87"/>
     </row>
     <row r="41" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C41" s="23"/>
@@ -28673,30 +28711,30 @@
     </row>
     <row r="25" spans="1:23" s="22" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="21"/>
-      <c r="B25" s="84" t="s">
+      <c r="B25" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="85"/>
-      <c r="D25" s="85"/>
-      <c r="E25" s="85"/>
-      <c r="F25" s="85"/>
-      <c r="G25" s="86"/>
-      <c r="J25" s="84" t="s">
+      <c r="C25" s="86"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="86"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="87"/>
+      <c r="J25" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="K25" s="85"/>
-      <c r="L25" s="85"/>
-      <c r="M25" s="85"/>
-      <c r="N25" s="85"/>
-      <c r="O25" s="86"/>
-      <c r="R25" s="84" t="s">
+      <c r="K25" s="86"/>
+      <c r="L25" s="86"/>
+      <c r="M25" s="86"/>
+      <c r="N25" s="86"/>
+      <c r="O25" s="87"/>
+      <c r="R25" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="S25" s="85"/>
-      <c r="T25" s="85"/>
-      <c r="U25" s="85"/>
-      <c r="V25" s="85"/>
-      <c r="W25" s="86"/>
+      <c r="S25" s="86"/>
+      <c r="T25" s="86"/>
+      <c r="U25" s="86"/>
+      <c r="V25" s="86"/>
+      <c r="W25" s="87"/>
     </row>
     <row r="41" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C41" s="23"/>
@@ -29509,30 +29547,30 @@
     </row>
     <row r="23" spans="1:23" s="22" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="21"/>
-      <c r="B23" s="84" t="s">
+      <c r="B23" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="85"/>
-      <c r="D23" s="85"/>
-      <c r="E23" s="85"/>
-      <c r="F23" s="85"/>
-      <c r="G23" s="86"/>
-      <c r="J23" s="84" t="s">
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="87"/>
+      <c r="J23" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="K23" s="85"/>
-      <c r="L23" s="85"/>
-      <c r="M23" s="85"/>
-      <c r="N23" s="85"/>
-      <c r="O23" s="86"/>
-      <c r="R23" s="84" t="s">
+      <c r="K23" s="86"/>
+      <c r="L23" s="86"/>
+      <c r="M23" s="86"/>
+      <c r="N23" s="86"/>
+      <c r="O23" s="87"/>
+      <c r="R23" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="S23" s="85"/>
-      <c r="T23" s="85"/>
-      <c r="U23" s="85"/>
-      <c r="V23" s="85"/>
-      <c r="W23" s="86"/>
+      <c r="S23" s="86"/>
+      <c r="T23" s="86"/>
+      <c r="U23" s="86"/>
+      <c r="V23" s="86"/>
+      <c r="W23" s="87"/>
     </row>
     <row r="39" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C39" s="23"/>
@@ -30220,9 +30258,9 @@
         <v>4</v>
       </c>
       <c r="F6" s="8"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="99"/>
-      <c r="I6" s="100"/>
+      <c r="G6" s="99"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="101"/>
       <c r="J6" s="9"/>
     </row>
     <row r="7" spans="4:10" x14ac:dyDescent="0.4">
@@ -30240,9 +30278,9 @@
         <v>5</v>
       </c>
       <c r="F8" s="8"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="100"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="101"/>
       <c r="J8" s="9"/>
     </row>
     <row r="9" spans="4:10" x14ac:dyDescent="0.4">
@@ -30332,24 +30370,24 @@
     </row>
     <row r="16" spans="4:10" x14ac:dyDescent="0.4">
       <c r="D16" s="7"/>
-      <c r="E16" s="87" t="s">
+      <c r="E16" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="F16" s="87"/>
+      <c r="F16" s="88"/>
       <c r="G16" s="8"/>
-      <c r="H16" s="88" t="s">
+      <c r="H16" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="88"/>
+      <c r="I16" s="89"/>
       <c r="J16" s="9"/>
     </row>
     <row r="17" spans="4:12" x14ac:dyDescent="0.4">
       <c r="D17" s="7"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="87"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="88"/>
       <c r="G17" s="8"/>
-      <c r="H17" s="88"/>
-      <c r="I17" s="88"/>
+      <c r="H17" s="89"/>
+      <c r="I17" s="89"/>
       <c r="J17" s="9"/>
     </row>
     <row r="18" spans="4:12" x14ac:dyDescent="0.4">
@@ -30366,36 +30404,36 @@
       </c>
     </row>
     <row r="19" spans="4:12" x14ac:dyDescent="0.4">
-      <c r="D19" s="89" t="s">
+      <c r="D19" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="90"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="90"/>
-      <c r="H19" s="90"/>
-      <c r="I19" s="90"/>
-      <c r="J19" s="91"/>
+      <c r="E19" s="91"/>
+      <c r="F19" s="91"/>
+      <c r="G19" s="91"/>
+      <c r="H19" s="91"/>
+      <c r="I19" s="91"/>
+      <c r="J19" s="92"/>
     </row>
     <row r="20" spans="4:12" x14ac:dyDescent="0.4">
-      <c r="D20" s="92"/>
-      <c r="E20" s="93"/>
-      <c r="F20" s="93"/>
-      <c r="G20" s="93"/>
-      <c r="H20" s="93"/>
-      <c r="I20" s="93"/>
-      <c r="J20" s="94"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="94"/>
+      <c r="F20" s="94"/>
+      <c r="G20" s="94"/>
+      <c r="H20" s="94"/>
+      <c r="I20" s="94"/>
+      <c r="J20" s="95"/>
       <c r="L20" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="21" spans="4:12" x14ac:dyDescent="0.4">
-      <c r="D21" s="95"/>
-      <c r="E21" s="96"/>
-      <c r="F21" s="96"/>
-      <c r="G21" s="96"/>
-      <c r="H21" s="96"/>
-      <c r="I21" s="96"/>
-      <c r="J21" s="97"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="97"/>
+      <c r="F21" s="97"/>
+      <c r="G21" s="97"/>
+      <c r="H21" s="97"/>
+      <c r="I21" s="97"/>
+      <c r="J21" s="98"/>
     </row>
     <row r="24" spans="4:12" x14ac:dyDescent="0.4">
       <c r="E24" t="s">
@@ -30488,9 +30526,9 @@
         <v>4</v>
       </c>
       <c r="F3" s="8"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="100"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="101"/>
       <c r="J3" s="9"/>
       <c r="K3"/>
       <c r="L3"/>
@@ -30530,9 +30568,9 @@
         <v>5</v>
       </c>
       <c r="F5" s="8"/>
-      <c r="G5" s="98"/>
-      <c r="H5" s="99"/>
-      <c r="I5" s="100"/>
+      <c r="G5" s="99"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="101"/>
       <c r="J5" s="9"/>
       <c r="K5"/>
       <c r="L5"/>
@@ -30710,15 +30748,15 @@
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13" s="7"/>
-      <c r="E13" s="87" t="s">
+      <c r="E13" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="87"/>
+      <c r="F13" s="88"/>
       <c r="G13" s="8"/>
-      <c r="H13" s="88" t="s">
+      <c r="H13" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="I13" s="88"/>
+      <c r="I13" s="89"/>
       <c r="J13" s="9"/>
       <c r="K13"/>
       <c r="L13"/>
@@ -30734,11 +30772,11 @@
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14" s="7"/>
-      <c r="E14" s="87"/>
-      <c r="F14" s="87"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="88"/>
       <c r="G14" s="8"/>
-      <c r="H14" s="88"/>
-      <c r="I14" s="88"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="89"/>
       <c r="J14" s="9"/>
       <c r="K14"/>
       <c r="L14"/>
@@ -30777,15 +30815,15 @@
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
-      <c r="D16" s="89" t="s">
+      <c r="D16" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="90"/>
-      <c r="I16" s="90"/>
-      <c r="J16" s="91"/>
+      <c r="E16" s="91"/>
+      <c r="F16" s="91"/>
+      <c r="G16" s="91"/>
+      <c r="H16" s="91"/>
+      <c r="I16" s="91"/>
+      <c r="J16" s="92"/>
       <c r="K16"/>
       <c r="L16"/>
       <c r="M16"/>
@@ -30799,13 +30837,13 @@
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
-      <c r="D17" s="92"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="93"/>
-      <c r="H17" s="93"/>
-      <c r="I17" s="93"/>
-      <c r="J17" s="94"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="94"/>
+      <c r="G17" s="94"/>
+      <c r="H17" s="94"/>
+      <c r="I17" s="94"/>
+      <c r="J17" s="95"/>
       <c r="K17"/>
       <c r="L17" t="s">
         <v>18</v>
@@ -30821,13 +30859,13 @@
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18"/>
-      <c r="D18" s="95"/>
-      <c r="E18" s="96"/>
-      <c r="F18" s="96"/>
-      <c r="G18" s="96"/>
-      <c r="H18" s="96"/>
-      <c r="I18" s="96"/>
-      <c r="J18" s="97"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="97"/>
+      <c r="F18" s="97"/>
+      <c r="G18" s="97"/>
+      <c r="H18" s="97"/>
+      <c r="I18" s="97"/>
+      <c r="J18" s="98"/>
       <c r="K18"/>
       <c r="L18"/>
       <c r="M18"/>
@@ -31305,24 +31343,24 @@
       <c r="Y46" s="29"/>
     </row>
     <row r="47" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B47" s="102" t="s">
+      <c r="B47" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="C47" s="103"/>
-      <c r="D47" s="103"/>
-      <c r="E47" s="103"/>
-      <c r="F47" s="103"/>
-      <c r="G47" s="103"/>
-      <c r="H47" s="103"/>
-      <c r="I47" s="103"/>
-      <c r="J47" s="103"/>
-      <c r="K47" s="103"/>
-      <c r="L47" s="103"/>
-      <c r="M47" s="103"/>
-      <c r="N47" s="103"/>
-      <c r="O47" s="103"/>
-      <c r="P47" s="103"/>
-      <c r="Q47" s="103"/>
+      <c r="C47" s="105"/>
+      <c r="D47" s="105"/>
+      <c r="E47" s="105"/>
+      <c r="F47" s="105"/>
+      <c r="G47" s="105"/>
+      <c r="H47" s="105"/>
+      <c r="I47" s="105"/>
+      <c r="J47" s="105"/>
+      <c r="K47" s="105"/>
+      <c r="L47" s="105"/>
+      <c r="M47" s="105"/>
+      <c r="N47" s="105"/>
+      <c r="O47" s="105"/>
+      <c r="P47" s="105"/>
+      <c r="Q47" s="105"/>
       <c r="S47" s="27"/>
       <c r="T47" s="28" t="s">
         <v>13</v>
@@ -31349,24 +31387,24 @@
       <c r="Y48" s="29"/>
     </row>
     <row r="49" spans="1:42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B49" s="102" t="s">
+      <c r="B49" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="C49" s="103"/>
-      <c r="D49" s="103"/>
-      <c r="E49" s="103"/>
-      <c r="F49" s="103"/>
-      <c r="G49" s="103"/>
-      <c r="H49" s="103"/>
-      <c r="I49" s="103"/>
-      <c r="J49" s="103"/>
-      <c r="K49" s="103"/>
-      <c r="L49" s="103"/>
-      <c r="M49" s="103"/>
-      <c r="N49" s="103"/>
-      <c r="O49" s="103"/>
-      <c r="P49" s="103"/>
-      <c r="Q49" s="103"/>
+      <c r="C49" s="105"/>
+      <c r="D49" s="105"/>
+      <c r="E49" s="105"/>
+      <c r="F49" s="105"/>
+      <c r="G49" s="105"/>
+      <c r="H49" s="105"/>
+      <c r="I49" s="105"/>
+      <c r="J49" s="105"/>
+      <c r="K49" s="105"/>
+      <c r="L49" s="105"/>
+      <c r="M49" s="105"/>
+      <c r="N49" s="105"/>
+      <c r="O49" s="105"/>
+      <c r="P49" s="105"/>
+      <c r="Q49" s="105"/>
       <c r="S49" s="27"/>
       <c r="T49" s="28" t="s">
         <v>15</v>
@@ -31393,24 +31431,24 @@
       <c r="Y50" s="29"/>
     </row>
     <row r="51" spans="1:42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B51" s="102" t="s">
+      <c r="B51" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="103"/>
-      <c r="D51" s="103"/>
-      <c r="E51" s="103"/>
-      <c r="F51" s="103"/>
-      <c r="G51" s="103"/>
-      <c r="H51" s="103"/>
-      <c r="I51" s="103"/>
-      <c r="J51" s="103"/>
-      <c r="K51" s="103"/>
-      <c r="L51" s="103"/>
-      <c r="M51" s="103"/>
-      <c r="N51" s="103"/>
-      <c r="O51" s="103"/>
-      <c r="P51" s="103"/>
-      <c r="Q51" s="103"/>
+      <c r="C51" s="105"/>
+      <c r="D51" s="105"/>
+      <c r="E51" s="105"/>
+      <c r="F51" s="105"/>
+      <c r="G51" s="105"/>
+      <c r="H51" s="105"/>
+      <c r="I51" s="105"/>
+      <c r="J51" s="105"/>
+      <c r="K51" s="105"/>
+      <c r="L51" s="105"/>
+      <c r="M51" s="105"/>
+      <c r="N51" s="105"/>
+      <c r="O51" s="105"/>
+      <c r="P51" s="105"/>
+      <c r="Q51" s="105"/>
       <c r="S51" s="27"/>
       <c r="T51" s="28" t="s">
         <v>16</v>
@@ -31437,54 +31475,54 @@
       <c r="Y52" s="29"/>
     </row>
     <row r="53" spans="1:42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B53" s="102" t="s">
+      <c r="B53" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="C53" s="103"/>
-      <c r="D53" s="103"/>
-      <c r="E53" s="103"/>
-      <c r="F53" s="103"/>
-      <c r="G53" s="103"/>
-      <c r="H53" s="103"/>
-      <c r="I53" s="103"/>
-      <c r="J53" s="103"/>
-      <c r="K53" s="103"/>
-      <c r="L53" s="103"/>
-      <c r="M53" s="103"/>
-      <c r="N53" s="103"/>
-      <c r="O53" s="103"/>
-      <c r="P53" s="103"/>
-      <c r="Q53" s="103"/>
+      <c r="C53" s="105"/>
+      <c r="D53" s="105"/>
+      <c r="E53" s="105"/>
+      <c r="F53" s="105"/>
+      <c r="G53" s="105"/>
+      <c r="H53" s="105"/>
+      <c r="I53" s="105"/>
+      <c r="J53" s="105"/>
+      <c r="K53" s="105"/>
+      <c r="L53" s="105"/>
+      <c r="M53" s="105"/>
+      <c r="N53" s="105"/>
+      <c r="O53" s="105"/>
+      <c r="P53" s="105"/>
+      <c r="Q53" s="105"/>
       <c r="S53" s="27"/>
-      <c r="T53" s="107" t="s">
+      <c r="T53" s="110" t="s">
         <v>25</v>
       </c>
-      <c r="U53" s="108"/>
-      <c r="V53" s="109"/>
+      <c r="U53" s="111"/>
+      <c r="V53" s="112"/>
       <c r="W53" s="28"/>
       <c r="X53" s="30">
         <f>-(V45*V66*V69-X45*X67*X70)</f>
         <v>-13190.633999999613</v>
       </c>
       <c r="Y53" s="29"/>
-      <c r="AA53" s="110" t="s">
+      <c r="AA53" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="AB53" s="111"/>
-      <c r="AC53" s="111"/>
-      <c r="AD53" s="111"/>
-      <c r="AE53" s="111"/>
-      <c r="AF53" s="111"/>
-      <c r="AG53" s="111"/>
-      <c r="AH53" s="111"/>
-      <c r="AI53" s="111"/>
-      <c r="AJ53" s="111"/>
-      <c r="AK53" s="111"/>
-      <c r="AL53" s="111"/>
-      <c r="AM53" s="111"/>
-      <c r="AN53" s="111"/>
-      <c r="AO53" s="111"/>
-      <c r="AP53" s="111"/>
+      <c r="AB53" s="103"/>
+      <c r="AC53" s="103"/>
+      <c r="AD53" s="103"/>
+      <c r="AE53" s="103"/>
+      <c r="AF53" s="103"/>
+      <c r="AG53" s="103"/>
+      <c r="AH53" s="103"/>
+      <c r="AI53" s="103"/>
+      <c r="AJ53" s="103"/>
+      <c r="AK53" s="103"/>
+      <c r="AL53" s="103"/>
+      <c r="AM53" s="103"/>
+      <c r="AN53" s="103"/>
+      <c r="AO53" s="103"/>
+      <c r="AP53" s="103"/>
     </row>
     <row r="54" spans="1:42" ht="3.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="S54" s="27"/>
@@ -31496,54 +31534,54 @@
       <c r="Y54" s="29"/>
     </row>
     <row r="55" spans="1:42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B55" s="102" t="s">
+      <c r="B55" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="C55" s="103"/>
-      <c r="D55" s="103"/>
-      <c r="E55" s="103"/>
-      <c r="F55" s="103"/>
-      <c r="G55" s="103"/>
-      <c r="H55" s="103"/>
-      <c r="I55" s="103"/>
-      <c r="J55" s="103"/>
-      <c r="K55" s="103"/>
-      <c r="L55" s="103"/>
-      <c r="M55" s="103"/>
-      <c r="N55" s="103"/>
-      <c r="O55" s="103"/>
-      <c r="P55" s="103"/>
-      <c r="Q55" s="103"/>
+      <c r="C55" s="105"/>
+      <c r="D55" s="105"/>
+      <c r="E55" s="105"/>
+      <c r="F55" s="105"/>
+      <c r="G55" s="105"/>
+      <c r="H55" s="105"/>
+      <c r="I55" s="105"/>
+      <c r="J55" s="105"/>
+      <c r="K55" s="105"/>
+      <c r="L55" s="105"/>
+      <c r="M55" s="105"/>
+      <c r="N55" s="105"/>
+      <c r="O55" s="105"/>
+      <c r="P55" s="105"/>
+      <c r="Q55" s="105"/>
       <c r="S55" s="27"/>
-      <c r="T55" s="104" t="s">
+      <c r="T55" s="107" t="s">
         <v>26</v>
       </c>
-      <c r="U55" s="105"/>
-      <c r="V55" s="106"/>
+      <c r="U55" s="108"/>
+      <c r="V55" s="109"/>
       <c r="W55" s="28"/>
       <c r="X55" s="30">
         <f>-(X45*X66*X69-V45*V67*V70)</f>
         <v>-95036.136999998242</v>
       </c>
       <c r="Y55" s="29"/>
-      <c r="AA55" s="110" t="s">
+      <c r="AA55" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="AB55" s="111"/>
-      <c r="AC55" s="111"/>
-      <c r="AD55" s="111"/>
-      <c r="AE55" s="111"/>
-      <c r="AF55" s="111"/>
-      <c r="AG55" s="111"/>
-      <c r="AH55" s="111"/>
-      <c r="AI55" s="111"/>
-      <c r="AJ55" s="111"/>
-      <c r="AK55" s="111"/>
-      <c r="AL55" s="111"/>
-      <c r="AM55" s="111"/>
-      <c r="AN55" s="111"/>
-      <c r="AO55" s="111"/>
-      <c r="AP55" s="111"/>
+      <c r="AB55" s="103"/>
+      <c r="AC55" s="103"/>
+      <c r="AD55" s="103"/>
+      <c r="AE55" s="103"/>
+      <c r="AF55" s="103"/>
+      <c r="AG55" s="103"/>
+      <c r="AH55" s="103"/>
+      <c r="AI55" s="103"/>
+      <c r="AJ55" s="103"/>
+      <c r="AK55" s="103"/>
+      <c r="AL55" s="103"/>
+      <c r="AM55" s="103"/>
+      <c r="AN55" s="103"/>
+      <c r="AO55" s="103"/>
+      <c r="AP55" s="103"/>
     </row>
     <row r="56" spans="1:42" ht="3.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="S56" s="27"/>
@@ -31556,35 +31594,35 @@
     </row>
     <row r="57" spans="1:42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="S57" s="27"/>
-      <c r="T57" s="101" t="s">
+      <c r="T57" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="U57" s="101"/>
-      <c r="V57" s="101"/>
+      <c r="U57" s="106"/>
+      <c r="V57" s="106"/>
       <c r="W57" s="28"/>
       <c r="X57" s="35">
         <f>X53</f>
         <v>-13190.633999999613</v>
       </c>
       <c r="Y57" s="29"/>
-      <c r="AA57" s="110" t="s">
+      <c r="AA57" s="102" t="s">
         <v>32</v>
       </c>
-      <c r="AB57" s="111"/>
-      <c r="AC57" s="111"/>
-      <c r="AD57" s="111"/>
-      <c r="AE57" s="111"/>
-      <c r="AF57" s="111"/>
-      <c r="AG57" s="111"/>
-      <c r="AH57" s="111"/>
-      <c r="AI57" s="111"/>
-      <c r="AJ57" s="111"/>
-      <c r="AK57" s="111"/>
-      <c r="AL57" s="111"/>
-      <c r="AM57" s="111"/>
-      <c r="AN57" s="111"/>
-      <c r="AO57" s="111"/>
-      <c r="AP57" s="111"/>
+      <c r="AB57" s="103"/>
+      <c r="AC57" s="103"/>
+      <c r="AD57" s="103"/>
+      <c r="AE57" s="103"/>
+      <c r="AF57" s="103"/>
+      <c r="AG57" s="103"/>
+      <c r="AH57" s="103"/>
+      <c r="AI57" s="103"/>
+      <c r="AJ57" s="103"/>
+      <c r="AK57" s="103"/>
+      <c r="AL57" s="103"/>
+      <c r="AM57" s="103"/>
+      <c r="AN57" s="103"/>
+      <c r="AO57" s="103"/>
+      <c r="AP57" s="103"/>
     </row>
     <row r="58" spans="1:42" ht="3.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="S58" s="27"/>
@@ -31597,34 +31635,34 @@
     </row>
     <row r="59" spans="1:42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="S59" s="27"/>
-      <c r="T59" s="101" t="s">
+      <c r="T59" s="106" t="s">
         <v>29</v>
       </c>
-      <c r="U59" s="101"/>
-      <c r="V59" s="101"/>
+      <c r="U59" s="106"/>
+      <c r="V59" s="106"/>
       <c r="W59" s="28"/>
       <c r="X59" s="36">
         <v>45.678899999999999</v>
       </c>
       <c r="Y59" s="29"/>
-      <c r="AA59" s="110" t="s">
+      <c r="AA59" s="102" t="s">
         <v>32</v>
       </c>
-      <c r="AB59" s="111"/>
-      <c r="AC59" s="111"/>
-      <c r="AD59" s="111"/>
-      <c r="AE59" s="111"/>
-      <c r="AF59" s="111"/>
-      <c r="AG59" s="111"/>
-      <c r="AH59" s="111"/>
-      <c r="AI59" s="111"/>
-      <c r="AJ59" s="111"/>
-      <c r="AK59" s="111"/>
-      <c r="AL59" s="111"/>
-      <c r="AM59" s="111"/>
-      <c r="AN59" s="111"/>
-      <c r="AO59" s="111"/>
-      <c r="AP59" s="111"/>
+      <c r="AB59" s="103"/>
+      <c r="AC59" s="103"/>
+      <c r="AD59" s="103"/>
+      <c r="AE59" s="103"/>
+      <c r="AF59" s="103"/>
+      <c r="AG59" s="103"/>
+      <c r="AH59" s="103"/>
+      <c r="AI59" s="103"/>
+      <c r="AJ59" s="103"/>
+      <c r="AK59" s="103"/>
+      <c r="AL59" s="103"/>
+      <c r="AM59" s="103"/>
+      <c r="AN59" s="103"/>
+      <c r="AO59" s="103"/>
+      <c r="AP59" s="103"/>
     </row>
     <row r="60" spans="1:42" ht="3.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="S60" s="27"/>
@@ -31637,11 +31675,11 @@
     </row>
     <row r="61" spans="1:42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="S61" s="27"/>
-      <c r="T61" s="101" t="s">
+      <c r="T61" s="106" t="s">
         <v>34</v>
       </c>
-      <c r="U61" s="101"/>
-      <c r="V61" s="101"/>
+      <c r="U61" s="106"/>
+      <c r="V61" s="106"/>
       <c r="W61" s="28"/>
       <c r="X61" s="28"/>
       <c r="Y61" s="29"/>
@@ -31674,15 +31712,15 @@
       <c r="P63" s="12"/>
       <c r="Q63" s="12"/>
       <c r="R63" s="21"/>
-      <c r="S63" s="84" t="s">
+      <c r="S63" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="T63" s="85"/>
-      <c r="U63" s="85"/>
-      <c r="V63" s="85"/>
-      <c r="W63" s="85"/>
-      <c r="X63" s="85"/>
-      <c r="Y63" s="86"/>
+      <c r="T63" s="86"/>
+      <c r="U63" s="86"/>
+      <c r="V63" s="86"/>
+      <c r="W63" s="86"/>
+      <c r="X63" s="86"/>
+      <c r="Y63" s="87"/>
       <c r="AA63" s="37" t="s">
         <v>35</v>
       </c>
@@ -31803,11 +31841,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="AA53:AP53"/>
-    <mergeCell ref="AA55:AP55"/>
-    <mergeCell ref="AA57:AP57"/>
-    <mergeCell ref="AA59:AP59"/>
-    <mergeCell ref="B55:Q55"/>
     <mergeCell ref="S63:Y63"/>
     <mergeCell ref="T59:V59"/>
     <mergeCell ref="T57:V57"/>
@@ -31823,6 +31856,11 @@
     <mergeCell ref="D16:J18"/>
     <mergeCell ref="T53:V53"/>
     <mergeCell ref="B53:Q53"/>
+    <mergeCell ref="AA53:AP53"/>
+    <mergeCell ref="AA55:AP55"/>
+    <mergeCell ref="AA57:AP57"/>
+    <mergeCell ref="AA59:AP59"/>
+    <mergeCell ref="B55:Q55"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31902,9 +31940,9 @@
         <v>4</v>
       </c>
       <c r="F3" s="8"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="100"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="101"/>
       <c r="J3" s="9"/>
       <c r="K3"/>
       <c r="L3"/>
@@ -31944,9 +31982,9 @@
         <v>5</v>
       </c>
       <c r="F5" s="8"/>
-      <c r="G5" s="98"/>
-      <c r="H5" s="99"/>
-      <c r="I5" s="100"/>
+      <c r="G5" s="99"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="101"/>
       <c r="J5" s="9"/>
       <c r="K5"/>
       <c r="L5"/>
@@ -32124,15 +32162,15 @@
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13" s="7"/>
-      <c r="E13" s="87" t="s">
+      <c r="E13" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="87"/>
+      <c r="F13" s="88"/>
       <c r="G13" s="8"/>
-      <c r="H13" s="88" t="s">
+      <c r="H13" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="I13" s="88"/>
+      <c r="I13" s="89"/>
       <c r="J13" s="9"/>
       <c r="K13"/>
       <c r="L13"/>
@@ -32148,11 +32186,11 @@
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14" s="7"/>
-      <c r="E14" s="87"/>
-      <c r="F14" s="87"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="88"/>
       <c r="G14" s="8"/>
-      <c r="H14" s="88"/>
-      <c r="I14" s="88"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="89"/>
       <c r="J14" s="9"/>
       <c r="K14"/>
       <c r="L14"/>
@@ -32191,15 +32229,15 @@
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
-      <c r="D16" s="89" t="s">
+      <c r="D16" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="90"/>
-      <c r="I16" s="90"/>
-      <c r="J16" s="91"/>
+      <c r="E16" s="91"/>
+      <c r="F16" s="91"/>
+      <c r="G16" s="91"/>
+      <c r="H16" s="91"/>
+      <c r="I16" s="91"/>
+      <c r="J16" s="92"/>
       <c r="K16"/>
       <c r="L16"/>
       <c r="M16"/>
@@ -32213,13 +32251,13 @@
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
-      <c r="D17" s="92"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="93"/>
-      <c r="H17" s="93"/>
-      <c r="I17" s="93"/>
-      <c r="J17" s="94"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="94"/>
+      <c r="G17" s="94"/>
+      <c r="H17" s="94"/>
+      <c r="I17" s="94"/>
+      <c r="J17" s="95"/>
       <c r="K17"/>
       <c r="L17" t="s">
         <v>18</v>
@@ -32235,13 +32273,13 @@
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18"/>
-      <c r="D18" s="95"/>
-      <c r="E18" s="96"/>
-      <c r="F18" s="96"/>
-      <c r="G18" s="96"/>
-      <c r="H18" s="96"/>
-      <c r="I18" s="96"/>
-      <c r="J18" s="97"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="97"/>
+      <c r="F18" s="97"/>
+      <c r="G18" s="97"/>
+      <c r="H18" s="97"/>
+      <c r="I18" s="97"/>
+      <c r="J18" s="98"/>
       <c r="K18"/>
       <c r="L18"/>
       <c r="M18"/>
@@ -32719,24 +32757,24 @@
       <c r="Y46" s="29"/>
     </row>
     <row r="47" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B47" s="102" t="s">
+      <c r="B47" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="C47" s="103"/>
-      <c r="D47" s="103"/>
-      <c r="E47" s="103"/>
-      <c r="F47" s="103"/>
-      <c r="G47" s="103"/>
-      <c r="H47" s="103"/>
-      <c r="I47" s="103"/>
-      <c r="J47" s="103"/>
-      <c r="K47" s="103"/>
-      <c r="L47" s="103"/>
-      <c r="M47" s="103"/>
-      <c r="N47" s="103"/>
-      <c r="O47" s="103"/>
-      <c r="P47" s="103"/>
-      <c r="Q47" s="103"/>
+      <c r="C47" s="105"/>
+      <c r="D47" s="105"/>
+      <c r="E47" s="105"/>
+      <c r="F47" s="105"/>
+      <c r="G47" s="105"/>
+      <c r="H47" s="105"/>
+      <c r="I47" s="105"/>
+      <c r="J47" s="105"/>
+      <c r="K47" s="105"/>
+      <c r="L47" s="105"/>
+      <c r="M47" s="105"/>
+      <c r="N47" s="105"/>
+      <c r="O47" s="105"/>
+      <c r="P47" s="105"/>
+      <c r="Q47" s="105"/>
       <c r="S47" s="27"/>
       <c r="T47" s="28" t="s">
         <v>13</v>
@@ -32763,24 +32801,24 @@
       <c r="Y48" s="29"/>
     </row>
     <row r="49" spans="1:42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B49" s="102" t="s">
+      <c r="B49" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="C49" s="103"/>
-      <c r="D49" s="103"/>
-      <c r="E49" s="103"/>
-      <c r="F49" s="103"/>
-      <c r="G49" s="103"/>
-      <c r="H49" s="103"/>
-      <c r="I49" s="103"/>
-      <c r="J49" s="103"/>
-      <c r="K49" s="103"/>
-      <c r="L49" s="103"/>
-      <c r="M49" s="103"/>
-      <c r="N49" s="103"/>
-      <c r="O49" s="103"/>
-      <c r="P49" s="103"/>
-      <c r="Q49" s="103"/>
+      <c r="C49" s="105"/>
+      <c r="D49" s="105"/>
+      <c r="E49" s="105"/>
+      <c r="F49" s="105"/>
+      <c r="G49" s="105"/>
+      <c r="H49" s="105"/>
+      <c r="I49" s="105"/>
+      <c r="J49" s="105"/>
+      <c r="K49" s="105"/>
+      <c r="L49" s="105"/>
+      <c r="M49" s="105"/>
+      <c r="N49" s="105"/>
+      <c r="O49" s="105"/>
+      <c r="P49" s="105"/>
+      <c r="Q49" s="105"/>
       <c r="S49" s="27"/>
       <c r="T49" s="28" t="s">
         <v>15</v>
@@ -32807,24 +32845,24 @@
       <c r="Y50" s="29"/>
     </row>
     <row r="51" spans="1:42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B51" s="102" t="s">
+      <c r="B51" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="103"/>
-      <c r="D51" s="103"/>
-      <c r="E51" s="103"/>
-      <c r="F51" s="103"/>
-      <c r="G51" s="103"/>
-      <c r="H51" s="103"/>
-      <c r="I51" s="103"/>
-      <c r="J51" s="103"/>
-      <c r="K51" s="103"/>
-      <c r="L51" s="103"/>
-      <c r="M51" s="103"/>
-      <c r="N51" s="103"/>
-      <c r="O51" s="103"/>
-      <c r="P51" s="103"/>
-      <c r="Q51" s="103"/>
+      <c r="C51" s="105"/>
+      <c r="D51" s="105"/>
+      <c r="E51" s="105"/>
+      <c r="F51" s="105"/>
+      <c r="G51" s="105"/>
+      <c r="H51" s="105"/>
+      <c r="I51" s="105"/>
+      <c r="J51" s="105"/>
+      <c r="K51" s="105"/>
+      <c r="L51" s="105"/>
+      <c r="M51" s="105"/>
+      <c r="N51" s="105"/>
+      <c r="O51" s="105"/>
+      <c r="P51" s="105"/>
+      <c r="Q51" s="105"/>
       <c r="S51" s="27"/>
       <c r="T51" s="28" t="s">
         <v>16</v>
@@ -32851,54 +32889,54 @@
       <c r="Y52" s="29"/>
     </row>
     <row r="53" spans="1:42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B53" s="102" t="s">
+      <c r="B53" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="C53" s="103"/>
-      <c r="D53" s="103"/>
-      <c r="E53" s="103"/>
-      <c r="F53" s="103"/>
-      <c r="G53" s="103"/>
-      <c r="H53" s="103"/>
-      <c r="I53" s="103"/>
-      <c r="J53" s="103"/>
-      <c r="K53" s="103"/>
-      <c r="L53" s="103"/>
-      <c r="M53" s="103"/>
-      <c r="N53" s="103"/>
-      <c r="O53" s="103"/>
-      <c r="P53" s="103"/>
-      <c r="Q53" s="103"/>
+      <c r="C53" s="105"/>
+      <c r="D53" s="105"/>
+      <c r="E53" s="105"/>
+      <c r="F53" s="105"/>
+      <c r="G53" s="105"/>
+      <c r="H53" s="105"/>
+      <c r="I53" s="105"/>
+      <c r="J53" s="105"/>
+      <c r="K53" s="105"/>
+      <c r="L53" s="105"/>
+      <c r="M53" s="105"/>
+      <c r="N53" s="105"/>
+      <c r="O53" s="105"/>
+      <c r="P53" s="105"/>
+      <c r="Q53" s="105"/>
       <c r="S53" s="27"/>
-      <c r="T53" s="107" t="s">
+      <c r="T53" s="110" t="s">
         <v>25</v>
       </c>
-      <c r="U53" s="108"/>
-      <c r="V53" s="109"/>
+      <c r="U53" s="111"/>
+      <c r="V53" s="112"/>
       <c r="W53" s="28"/>
       <c r="X53" s="30">
         <f>-(V45*V66*V69-X45*X67*X70)</f>
         <v>-13190.633999999613</v>
       </c>
       <c r="Y53" s="29"/>
-      <c r="AA53" s="110" t="s">
+      <c r="AA53" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="AB53" s="111"/>
-      <c r="AC53" s="111"/>
-      <c r="AD53" s="111"/>
-      <c r="AE53" s="111"/>
-      <c r="AF53" s="111"/>
-      <c r="AG53" s="111"/>
-      <c r="AH53" s="111"/>
-      <c r="AI53" s="111"/>
-      <c r="AJ53" s="111"/>
-      <c r="AK53" s="111"/>
-      <c r="AL53" s="111"/>
-      <c r="AM53" s="111"/>
-      <c r="AN53" s="111"/>
-      <c r="AO53" s="111"/>
-      <c r="AP53" s="111"/>
+      <c r="AB53" s="103"/>
+      <c r="AC53" s="103"/>
+      <c r="AD53" s="103"/>
+      <c r="AE53" s="103"/>
+      <c r="AF53" s="103"/>
+      <c r="AG53" s="103"/>
+      <c r="AH53" s="103"/>
+      <c r="AI53" s="103"/>
+      <c r="AJ53" s="103"/>
+      <c r="AK53" s="103"/>
+      <c r="AL53" s="103"/>
+      <c r="AM53" s="103"/>
+      <c r="AN53" s="103"/>
+      <c r="AO53" s="103"/>
+      <c r="AP53" s="103"/>
     </row>
     <row r="54" spans="1:42" ht="3.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="S54" s="27"/>
@@ -32910,54 +32948,54 @@
       <c r="Y54" s="29"/>
     </row>
     <row r="55" spans="1:42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B55" s="102" t="s">
+      <c r="B55" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="C55" s="103"/>
-      <c r="D55" s="103"/>
-      <c r="E55" s="103"/>
-      <c r="F55" s="103"/>
-      <c r="G55" s="103"/>
-      <c r="H55" s="103"/>
-      <c r="I55" s="103"/>
-      <c r="J55" s="103"/>
-      <c r="K55" s="103"/>
-      <c r="L55" s="103"/>
-      <c r="M55" s="103"/>
-      <c r="N55" s="103"/>
-      <c r="O55" s="103"/>
-      <c r="P55" s="103"/>
-      <c r="Q55" s="103"/>
+      <c r="C55" s="105"/>
+      <c r="D55" s="105"/>
+      <c r="E55" s="105"/>
+      <c r="F55" s="105"/>
+      <c r="G55" s="105"/>
+      <c r="H55" s="105"/>
+      <c r="I55" s="105"/>
+      <c r="J55" s="105"/>
+      <c r="K55" s="105"/>
+      <c r="L55" s="105"/>
+      <c r="M55" s="105"/>
+      <c r="N55" s="105"/>
+      <c r="O55" s="105"/>
+      <c r="P55" s="105"/>
+      <c r="Q55" s="105"/>
       <c r="S55" s="27"/>
-      <c r="T55" s="104" t="s">
+      <c r="T55" s="107" t="s">
         <v>26</v>
       </c>
-      <c r="U55" s="105"/>
-      <c r="V55" s="106"/>
+      <c r="U55" s="108"/>
+      <c r="V55" s="109"/>
       <c r="W55" s="28"/>
       <c r="X55" s="30">
         <f>-(X45*X66*X69-V45*V67*V70)</f>
         <v>-95036.136999998242</v>
       </c>
       <c r="Y55" s="29"/>
-      <c r="AA55" s="110" t="s">
+      <c r="AA55" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="AB55" s="111"/>
-      <c r="AC55" s="111"/>
-      <c r="AD55" s="111"/>
-      <c r="AE55" s="111"/>
-      <c r="AF55" s="111"/>
-      <c r="AG55" s="111"/>
-      <c r="AH55" s="111"/>
-      <c r="AI55" s="111"/>
-      <c r="AJ55" s="111"/>
-      <c r="AK55" s="111"/>
-      <c r="AL55" s="111"/>
-      <c r="AM55" s="111"/>
-      <c r="AN55" s="111"/>
-      <c r="AO55" s="111"/>
-      <c r="AP55" s="111"/>
+      <c r="AB55" s="103"/>
+      <c r="AC55" s="103"/>
+      <c r="AD55" s="103"/>
+      <c r="AE55" s="103"/>
+      <c r="AF55" s="103"/>
+      <c r="AG55" s="103"/>
+      <c r="AH55" s="103"/>
+      <c r="AI55" s="103"/>
+      <c r="AJ55" s="103"/>
+      <c r="AK55" s="103"/>
+      <c r="AL55" s="103"/>
+      <c r="AM55" s="103"/>
+      <c r="AN55" s="103"/>
+      <c r="AO55" s="103"/>
+      <c r="AP55" s="103"/>
     </row>
     <row r="56" spans="1:42" ht="3.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="S56" s="27"/>
@@ -32970,35 +33008,35 @@
     </row>
     <row r="57" spans="1:42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="S57" s="27"/>
-      <c r="T57" s="101" t="s">
+      <c r="T57" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="U57" s="101"/>
-      <c r="V57" s="101"/>
+      <c r="U57" s="106"/>
+      <c r="V57" s="106"/>
       <c r="W57" s="28"/>
       <c r="X57" s="35">
         <f>X53</f>
         <v>-13190.633999999613</v>
       </c>
       <c r="Y57" s="29"/>
-      <c r="AA57" s="110" t="s">
+      <c r="AA57" s="102" t="s">
         <v>32</v>
       </c>
-      <c r="AB57" s="111"/>
-      <c r="AC57" s="111"/>
-      <c r="AD57" s="111"/>
-      <c r="AE57" s="111"/>
-      <c r="AF57" s="111"/>
-      <c r="AG57" s="111"/>
-      <c r="AH57" s="111"/>
-      <c r="AI57" s="111"/>
-      <c r="AJ57" s="111"/>
-      <c r="AK57" s="111"/>
-      <c r="AL57" s="111"/>
-      <c r="AM57" s="111"/>
-      <c r="AN57" s="111"/>
-      <c r="AO57" s="111"/>
-      <c r="AP57" s="111"/>
+      <c r="AB57" s="103"/>
+      <c r="AC57" s="103"/>
+      <c r="AD57" s="103"/>
+      <c r="AE57" s="103"/>
+      <c r="AF57" s="103"/>
+      <c r="AG57" s="103"/>
+      <c r="AH57" s="103"/>
+      <c r="AI57" s="103"/>
+      <c r="AJ57" s="103"/>
+      <c r="AK57" s="103"/>
+      <c r="AL57" s="103"/>
+      <c r="AM57" s="103"/>
+      <c r="AN57" s="103"/>
+      <c r="AO57" s="103"/>
+      <c r="AP57" s="103"/>
     </row>
     <row r="58" spans="1:42" ht="3.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="S58" s="27"/>
@@ -33011,34 +33049,34 @@
     </row>
     <row r="59" spans="1:42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="S59" s="27"/>
-      <c r="T59" s="101" t="s">
+      <c r="T59" s="106" t="s">
         <v>29</v>
       </c>
-      <c r="U59" s="101"/>
-      <c r="V59" s="101"/>
+      <c r="U59" s="106"/>
+      <c r="V59" s="106"/>
       <c r="W59" s="28"/>
       <c r="X59" s="36">
         <v>45.678899999999999</v>
       </c>
       <c r="Y59" s="29"/>
-      <c r="AA59" s="110" t="s">
+      <c r="AA59" s="102" t="s">
         <v>32</v>
       </c>
-      <c r="AB59" s="111"/>
-      <c r="AC59" s="111"/>
-      <c r="AD59" s="111"/>
-      <c r="AE59" s="111"/>
-      <c r="AF59" s="111"/>
-      <c r="AG59" s="111"/>
-      <c r="AH59" s="111"/>
-      <c r="AI59" s="111"/>
-      <c r="AJ59" s="111"/>
-      <c r="AK59" s="111"/>
-      <c r="AL59" s="111"/>
-      <c r="AM59" s="111"/>
-      <c r="AN59" s="111"/>
-      <c r="AO59" s="111"/>
-      <c r="AP59" s="111"/>
+      <c r="AB59" s="103"/>
+      <c r="AC59" s="103"/>
+      <c r="AD59" s="103"/>
+      <c r="AE59" s="103"/>
+      <c r="AF59" s="103"/>
+      <c r="AG59" s="103"/>
+      <c r="AH59" s="103"/>
+      <c r="AI59" s="103"/>
+      <c r="AJ59" s="103"/>
+      <c r="AK59" s="103"/>
+      <c r="AL59" s="103"/>
+      <c r="AM59" s="103"/>
+      <c r="AN59" s="103"/>
+      <c r="AO59" s="103"/>
+      <c r="AP59" s="103"/>
     </row>
     <row r="60" spans="1:42" ht="3.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="S60" s="27"/>
@@ -33051,11 +33089,11 @@
     </row>
     <row r="61" spans="1:42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="S61" s="27"/>
-      <c r="T61" s="101" t="s">
+      <c r="T61" s="106" t="s">
         <v>34</v>
       </c>
-      <c r="U61" s="101"/>
-      <c r="V61" s="101"/>
+      <c r="U61" s="106"/>
+      <c r="V61" s="106"/>
       <c r="W61" s="28"/>
       <c r="X61" s="28"/>
       <c r="Y61" s="29"/>
@@ -33088,15 +33126,15 @@
       <c r="P63" s="12"/>
       <c r="Q63" s="12"/>
       <c r="R63" s="21"/>
-      <c r="S63" s="84" t="s">
+      <c r="S63" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="T63" s="85"/>
-      <c r="U63" s="85"/>
-      <c r="V63" s="85"/>
-      <c r="W63" s="85"/>
-      <c r="X63" s="85"/>
-      <c r="Y63" s="86"/>
+      <c r="T63" s="86"/>
+      <c r="U63" s="86"/>
+      <c r="V63" s="86"/>
+      <c r="W63" s="86"/>
+      <c r="X63" s="86"/>
+      <c r="Y63" s="87"/>
       <c r="AA63" s="37" t="s">
         <v>35</v>
       </c>
@@ -33510,11 +33548,11 @@
     </row>
     <row r="91" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="S91" s="27"/>
-      <c r="T91" s="101" t="s">
+      <c r="T91" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="U91" s="101"/>
-      <c r="V91" s="101"/>
+      <c r="U91" s="106"/>
+      <c r="V91" s="106"/>
       <c r="W91" s="28"/>
       <c r="X91" s="28">
         <v>999999</v>
@@ -33523,37 +33561,28 @@
     </row>
     <row r="92" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="S92" s="27"/>
-      <c r="T92" s="101" t="s">
+      <c r="T92" s="106" t="s">
         <v>34</v>
       </c>
-      <c r="U92" s="101"/>
-      <c r="V92" s="101"/>
+      <c r="U92" s="106"/>
+      <c r="V92" s="106"/>
       <c r="W92" s="28"/>
       <c r="X92" s="28"/>
       <c r="Y92" s="29"/>
     </row>
     <row r="93" spans="3:25" ht="36.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="S93" s="84" t="s">
+      <c r="S93" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="T93" s="85"/>
-      <c r="U93" s="85"/>
-      <c r="V93" s="85"/>
-      <c r="W93" s="85"/>
-      <c r="X93" s="85"/>
-      <c r="Y93" s="86"/>
+      <c r="T93" s="86"/>
+      <c r="U93" s="86"/>
+      <c r="V93" s="86"/>
+      <c r="W93" s="86"/>
+      <c r="X93" s="86"/>
+      <c r="Y93" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="T91:V91"/>
-    <mergeCell ref="T92:V92"/>
-    <mergeCell ref="S93:Y93"/>
-    <mergeCell ref="T57:V57"/>
-    <mergeCell ref="AA57:AP57"/>
-    <mergeCell ref="T59:V59"/>
-    <mergeCell ref="AA59:AP59"/>
-    <mergeCell ref="T61:V61"/>
-    <mergeCell ref="S63:Y63"/>
     <mergeCell ref="B55:Q55"/>
     <mergeCell ref="T55:V55"/>
     <mergeCell ref="AA55:AP55"/>
@@ -33568,6 +33597,15 @@
     <mergeCell ref="B53:Q53"/>
     <mergeCell ref="T53:V53"/>
     <mergeCell ref="AA53:AP53"/>
+    <mergeCell ref="T91:V91"/>
+    <mergeCell ref="T92:V92"/>
+    <mergeCell ref="S93:Y93"/>
+    <mergeCell ref="T57:V57"/>
+    <mergeCell ref="AA57:AP57"/>
+    <mergeCell ref="T59:V59"/>
+    <mergeCell ref="AA59:AP59"/>
+    <mergeCell ref="T61:V61"/>
+    <mergeCell ref="S63:Y63"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -33676,8 +33714,8 @@
   </sheetPr>
   <dimension ref="B2:N138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S61" sqref="S61"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -33685,13 +33723,13 @@
     <col min="2" max="2" width="2.25" style="16" customWidth="1"/>
     <col min="3" max="3" width="25.625" style="16" customWidth="1"/>
     <col min="4" max="4" width="1.25" style="16" customWidth="1"/>
-    <col min="5" max="5" width="12.625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="16.625" style="16" customWidth="1"/>
     <col min="6" max="6" width="1.25" style="16" customWidth="1"/>
-    <col min="7" max="7" width="12.625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="16.625" style="16" customWidth="1"/>
     <col min="8" max="8" width="1.25" style="16" customWidth="1"/>
-    <col min="9" max="9" width="12.625" style="16" customWidth="1"/>
+    <col min="9" max="9" width="16.625" style="16" customWidth="1"/>
     <col min="10" max="10" width="1.25" style="16" customWidth="1"/>
-    <col min="11" max="11" width="12.625" style="16" customWidth="1"/>
+    <col min="11" max="11" width="16.625" style="16" customWidth="1"/>
     <col min="12" max="12" width="2.25" style="16" customWidth="1"/>
     <col min="13" max="13" width="3" style="16" customWidth="1"/>
     <col min="14" max="14" width="9" style="16"/>
@@ -33727,7 +33765,7 @@
       </c>
       <c r="D20" s="69"/>
       <c r="E20" s="69">
-        <v>123456</v>
+        <v>12345678</v>
       </c>
       <c r="F20" s="69"/>
       <c r="G20" s="69"/>
@@ -33757,19 +33795,19 @@
       </c>
       <c r="D22" s="69"/>
       <c r="E22" s="69" t="s">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="F22" s="69"/>
       <c r="G22" s="69" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="H22" s="69"/>
       <c r="I22" s="69" t="s">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="J22" s="69"/>
       <c r="K22" s="69" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="L22" s="70"/>
     </row>
@@ -33941,19 +33979,19 @@
       <c r="L33" s="77"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B34" s="81" t="s">
+      <c r="B34" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="82"/>
-      <c r="D34" s="82"/>
-      <c r="E34" s="82"/>
-      <c r="F34" s="82"/>
-      <c r="G34" s="82"/>
-      <c r="H34" s="82"/>
-      <c r="I34" s="82"/>
-      <c r="J34" s="82"/>
-      <c r="K34" s="82"/>
-      <c r="L34" s="83"/>
+      <c r="C34" s="83"/>
+      <c r="D34" s="83"/>
+      <c r="E34" s="83"/>
+      <c r="F34" s="83"/>
+      <c r="G34" s="83"/>
+      <c r="H34" s="83"/>
+      <c r="I34" s="83"/>
+      <c r="J34" s="83"/>
+      <c r="K34" s="83"/>
+      <c r="L34" s="84"/>
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
     </row>
@@ -33982,7 +34020,7 @@
       </c>
       <c r="D49" s="69"/>
       <c r="E49" s="69">
-        <v>123456</v>
+        <v>12345678</v>
       </c>
       <c r="F49" s="69"/>
       <c r="G49" s="69"/>
@@ -34241,7 +34279,7 @@
       </c>
       <c r="D65" s="69"/>
       <c r="E65" s="69" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="F65" s="69"/>
       <c r="G65" s="69"/>
@@ -34293,19 +34331,19 @@
       <c r="L68" s="77"/>
     </row>
     <row r="69" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B69" s="81" t="s">
+      <c r="B69" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="C69" s="82"/>
-      <c r="D69" s="82"/>
-      <c r="E69" s="82"/>
-      <c r="F69" s="82"/>
-      <c r="G69" s="82"/>
-      <c r="H69" s="82"/>
-      <c r="I69" s="82"/>
-      <c r="J69" s="82"/>
-      <c r="K69" s="82"/>
-      <c r="L69" s="83"/>
+      <c r="C69" s="83"/>
+      <c r="D69" s="83"/>
+      <c r="E69" s="83"/>
+      <c r="F69" s="83"/>
+      <c r="G69" s="83"/>
+      <c r="H69" s="83"/>
+      <c r="I69" s="83"/>
+      <c r="J69" s="83"/>
+      <c r="K69" s="83"/>
+      <c r="L69" s="84"/>
       <c r="M69" s="22"/>
       <c r="N69" s="22"/>
     </row>
@@ -34329,7 +34367,7 @@
       </c>
       <c r="D72" s="69"/>
       <c r="E72" s="69">
-        <v>123456</v>
+        <v>12345678</v>
       </c>
       <c r="F72" s="69"/>
       <c r="G72" s="69"/>
@@ -34359,19 +34397,19 @@
       </c>
       <c r="D74" s="69"/>
       <c r="E74" s="69" t="s">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="F74" s="69"/>
       <c r="G74" s="69" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="H74" s="69"/>
       <c r="I74" s="69" t="s">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="J74" s="69"/>
       <c r="K74" s="69" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="L74" s="70"/>
     </row>
@@ -34588,7 +34626,7 @@
       </c>
       <c r="D88" s="69"/>
       <c r="E88" s="69" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F88" s="69"/>
       <c r="G88" s="69"/>
@@ -34640,19 +34678,19 @@
       <c r="L91" s="77"/>
     </row>
     <row r="92" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B92" s="81" t="s">
+      <c r="B92" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="C92" s="82"/>
-      <c r="D92" s="82"/>
-      <c r="E92" s="82"/>
-      <c r="F92" s="82"/>
-      <c r="G92" s="82"/>
-      <c r="H92" s="82"/>
-      <c r="I92" s="82"/>
-      <c r="J92" s="82"/>
-      <c r="K92" s="82"/>
-      <c r="L92" s="83"/>
+      <c r="C92" s="83"/>
+      <c r="D92" s="83"/>
+      <c r="E92" s="83"/>
+      <c r="F92" s="83"/>
+      <c r="G92" s="83"/>
+      <c r="H92" s="83"/>
+      <c r="I92" s="83"/>
+      <c r="J92" s="83"/>
+      <c r="K92" s="83"/>
+      <c r="L92" s="84"/>
       <c r="M92" s="22"/>
       <c r="N92" s="22"/>
     </row>
@@ -34676,7 +34714,7 @@
       </c>
       <c r="D95" s="69"/>
       <c r="E95" s="69">
-        <v>123456</v>
+        <v>12345678</v>
       </c>
       <c r="F95" s="69"/>
       <c r="G95" s="69"/>
@@ -34934,8 +34972,8 @@
         <v>86</v>
       </c>
       <c r="D111" s="69"/>
-      <c r="E111" s="112" t="s">
-        <v>89</v>
+      <c r="E111" s="80" t="s">
+        <v>92</v>
       </c>
       <c r="F111" s="69"/>
       <c r="G111" s="69"/>
@@ -34987,19 +35025,19 @@
       <c r="L114" s="77"/>
     </row>
     <row r="115" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B115" s="81" t="s">
+      <c r="B115" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="C115" s="82"/>
-      <c r="D115" s="82"/>
-      <c r="E115" s="82"/>
-      <c r="F115" s="82"/>
-      <c r="G115" s="82"/>
-      <c r="H115" s="82"/>
-      <c r="I115" s="82"/>
-      <c r="J115" s="82"/>
-      <c r="K115" s="82"/>
-      <c r="L115" s="83"/>
+      <c r="C115" s="83"/>
+      <c r="D115" s="83"/>
+      <c r="E115" s="83"/>
+      <c r="F115" s="83"/>
+      <c r="G115" s="83"/>
+      <c r="H115" s="83"/>
+      <c r="I115" s="83"/>
+      <c r="J115" s="83"/>
+      <c r="K115" s="83"/>
+      <c r="L115" s="84"/>
       <c r="M115" s="22"/>
       <c r="N115" s="22"/>
     </row>
@@ -35023,7 +35061,7 @@
       </c>
       <c r="D118" s="69"/>
       <c r="E118" s="69">
-        <v>123456</v>
+        <v>12345678</v>
       </c>
       <c r="F118" s="69"/>
       <c r="G118" s="69"/>
@@ -35281,8 +35319,8 @@
         <v>86</v>
       </c>
       <c r="D134" s="69"/>
-      <c r="E134" s="112" t="s">
-        <v>89</v>
+      <c r="E134" s="80" t="s">
+        <v>91</v>
       </c>
       <c r="F134" s="69"/>
       <c r="G134" s="69"/>
@@ -35334,19 +35372,19 @@
       <c r="L137" s="77"/>
     </row>
     <row r="138" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B138" s="81" t="s">
+      <c r="B138" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="C138" s="82"/>
-      <c r="D138" s="82"/>
-      <c r="E138" s="82"/>
-      <c r="F138" s="82"/>
-      <c r="G138" s="82"/>
-      <c r="H138" s="82"/>
-      <c r="I138" s="82"/>
-      <c r="J138" s="82"/>
-      <c r="K138" s="82"/>
-      <c r="L138" s="83"/>
+      <c r="C138" s="83"/>
+      <c r="D138" s="83"/>
+      <c r="E138" s="83"/>
+      <c r="F138" s="83"/>
+      <c r="G138" s="83"/>
+      <c r="H138" s="83"/>
+      <c r="I138" s="83"/>
+      <c r="J138" s="83"/>
+      <c r="K138" s="83"/>
+      <c r="L138" s="84"/>
       <c r="M138" s="22"/>
       <c r="N138" s="22"/>
     </row>
@@ -35636,19 +35674,19 @@
       <c r="L33" s="77"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B34" s="81" t="s">
+      <c r="B34" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="82"/>
-      <c r="D34" s="82"/>
-      <c r="E34" s="82"/>
-      <c r="F34" s="82"/>
-      <c r="G34" s="82"/>
-      <c r="H34" s="82"/>
-      <c r="I34" s="82"/>
-      <c r="J34" s="82"/>
-      <c r="K34" s="82"/>
-      <c r="L34" s="83"/>
+      <c r="C34" s="83"/>
+      <c r="D34" s="83"/>
+      <c r="E34" s="83"/>
+      <c r="F34" s="83"/>
+      <c r="G34" s="83"/>
+      <c r="H34" s="83"/>
+      <c r="I34" s="83"/>
+      <c r="J34" s="83"/>
+      <c r="K34" s="83"/>
+      <c r="L34" s="84"/>
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
     </row>
@@ -35958,19 +35996,19 @@
       <c r="L66" s="77"/>
     </row>
     <row r="67" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B67" s="81" t="s">
+      <c r="B67" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="C67" s="82"/>
-      <c r="D67" s="82"/>
-      <c r="E67" s="82"/>
-      <c r="F67" s="82"/>
-      <c r="G67" s="82"/>
-      <c r="H67" s="82"/>
-      <c r="I67" s="82"/>
-      <c r="J67" s="82"/>
-      <c r="K67" s="82"/>
-      <c r="L67" s="83"/>
+      <c r="C67" s="83"/>
+      <c r="D67" s="83"/>
+      <c r="E67" s="83"/>
+      <c r="F67" s="83"/>
+      <c r="G67" s="83"/>
+      <c r="H67" s="83"/>
+      <c r="I67" s="83"/>
+      <c r="J67" s="83"/>
+      <c r="K67" s="83"/>
+      <c r="L67" s="84"/>
       <c r="M67" s="22"/>
       <c r="N67" s="22"/>
     </row>
@@ -36275,19 +36313,19 @@
       <c r="L87" s="77"/>
     </row>
     <row r="88" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B88" s="81" t="s">
+      <c r="B88" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="C88" s="82"/>
-      <c r="D88" s="82"/>
-      <c r="E88" s="82"/>
-      <c r="F88" s="82"/>
-      <c r="G88" s="82"/>
-      <c r="H88" s="82"/>
-      <c r="I88" s="82"/>
-      <c r="J88" s="82"/>
-      <c r="K88" s="82"/>
-      <c r="L88" s="83"/>
+      <c r="C88" s="83"/>
+      <c r="D88" s="83"/>
+      <c r="E88" s="83"/>
+      <c r="F88" s="83"/>
+      <c r="G88" s="83"/>
+      <c r="H88" s="83"/>
+      <c r="I88" s="83"/>
+      <c r="J88" s="83"/>
+      <c r="K88" s="83"/>
+      <c r="L88" s="84"/>
       <c r="M88" s="22"/>
       <c r="N88" s="22"/>
     </row>
@@ -36592,19 +36630,19 @@
       <c r="L108" s="77"/>
     </row>
     <row r="109" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B109" s="81" t="s">
+      <c r="B109" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="C109" s="82"/>
-      <c r="D109" s="82"/>
-      <c r="E109" s="82"/>
-      <c r="F109" s="82"/>
-      <c r="G109" s="82"/>
-      <c r="H109" s="82"/>
-      <c r="I109" s="82"/>
-      <c r="J109" s="82"/>
-      <c r="K109" s="82"/>
-      <c r="L109" s="83"/>
+      <c r="C109" s="83"/>
+      <c r="D109" s="83"/>
+      <c r="E109" s="83"/>
+      <c r="F109" s="83"/>
+      <c r="G109" s="83"/>
+      <c r="H109" s="83"/>
+      <c r="I109" s="83"/>
+      <c r="J109" s="83"/>
+      <c r="K109" s="83"/>
+      <c r="L109" s="84"/>
       <c r="M109" s="22"/>
       <c r="N109" s="22"/>
     </row>
@@ -36893,19 +36931,19 @@
       <c r="L33" s="33"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B34" s="84" t="s">
+      <c r="B34" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="85"/>
-      <c r="D34" s="85"/>
-      <c r="E34" s="85"/>
-      <c r="F34" s="85"/>
-      <c r="G34" s="85"/>
-      <c r="H34" s="85"/>
-      <c r="I34" s="85"/>
-      <c r="J34" s="85"/>
-      <c r="K34" s="85"/>
-      <c r="L34" s="86"/>
+      <c r="C34" s="86"/>
+      <c r="D34" s="86"/>
+      <c r="E34" s="86"/>
+      <c r="F34" s="86"/>
+      <c r="G34" s="86"/>
+      <c r="H34" s="86"/>
+      <c r="I34" s="86"/>
+      <c r="J34" s="86"/>
+      <c r="K34" s="86"/>
+      <c r="L34" s="87"/>
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
     </row>
@@ -37191,19 +37229,19 @@
       <c r="L33" s="33"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B34" s="84" t="s">
+      <c r="B34" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="85"/>
-      <c r="D34" s="85"/>
-      <c r="E34" s="85"/>
-      <c r="F34" s="85"/>
-      <c r="G34" s="85"/>
-      <c r="H34" s="85"/>
-      <c r="I34" s="85"/>
-      <c r="J34" s="85"/>
-      <c r="K34" s="85"/>
-      <c r="L34" s="86"/>
+      <c r="C34" s="86"/>
+      <c r="D34" s="86"/>
+      <c r="E34" s="86"/>
+      <c r="F34" s="86"/>
+      <c r="G34" s="86"/>
+      <c r="H34" s="86"/>
+      <c r="I34" s="86"/>
+      <c r="J34" s="86"/>
+      <c r="K34" s="86"/>
+      <c r="L34" s="87"/>
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
     </row>
@@ -37489,19 +37527,19 @@
       <c r="L33" s="33"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B34" s="84" t="s">
+      <c r="B34" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="85"/>
-      <c r="D34" s="85"/>
-      <c r="E34" s="85"/>
-      <c r="F34" s="85"/>
-      <c r="G34" s="85"/>
-      <c r="H34" s="85"/>
-      <c r="I34" s="85"/>
-      <c r="J34" s="85"/>
-      <c r="K34" s="85"/>
-      <c r="L34" s="86"/>
+      <c r="C34" s="86"/>
+      <c r="D34" s="86"/>
+      <c r="E34" s="86"/>
+      <c r="F34" s="86"/>
+      <c r="G34" s="86"/>
+      <c r="H34" s="86"/>
+      <c r="I34" s="86"/>
+      <c r="J34" s="86"/>
+      <c r="K34" s="86"/>
+      <c r="L34" s="87"/>
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
     </row>
@@ -37784,19 +37822,19 @@
       <c r="L33" s="33"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B34" s="84" t="s">
+      <c r="B34" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="85"/>
-      <c r="D34" s="85"/>
-      <c r="E34" s="85"/>
-      <c r="F34" s="85"/>
-      <c r="G34" s="85"/>
-      <c r="H34" s="85"/>
-      <c r="I34" s="85"/>
-      <c r="J34" s="85"/>
-      <c r="K34" s="85"/>
-      <c r="L34" s="86"/>
+      <c r="C34" s="86"/>
+      <c r="D34" s="86"/>
+      <c r="E34" s="86"/>
+      <c r="F34" s="86"/>
+      <c r="G34" s="86"/>
+      <c r="H34" s="86"/>
+      <c r="I34" s="86"/>
+      <c r="J34" s="86"/>
+      <c r="K34" s="86"/>
+      <c r="L34" s="87"/>
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
     </row>
@@ -38439,30 +38477,30 @@
     </row>
     <row r="67" spans="1:23" s="22" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="21"/>
-      <c r="B67" s="84" t="s">
+      <c r="B67" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="C67" s="85"/>
-      <c r="D67" s="85"/>
-      <c r="E67" s="85"/>
-      <c r="F67" s="85"/>
-      <c r="G67" s="86"/>
-      <c r="J67" s="84" t="s">
+      <c r="C67" s="86"/>
+      <c r="D67" s="86"/>
+      <c r="E67" s="86"/>
+      <c r="F67" s="86"/>
+      <c r="G67" s="87"/>
+      <c r="J67" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="K67" s="85"/>
-      <c r="L67" s="85"/>
-      <c r="M67" s="85"/>
-      <c r="N67" s="85"/>
-      <c r="O67" s="86"/>
-      <c r="R67" s="84" t="s">
+      <c r="K67" s="86"/>
+      <c r="L67" s="86"/>
+      <c r="M67" s="86"/>
+      <c r="N67" s="86"/>
+      <c r="O67" s="87"/>
+      <c r="R67" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="S67" s="85"/>
-      <c r="T67" s="85"/>
-      <c r="U67" s="85"/>
-      <c r="V67" s="85"/>
-      <c r="W67" s="86"/>
+      <c r="S67" s="86"/>
+      <c r="T67" s="86"/>
+      <c r="U67" s="86"/>
+      <c r="V67" s="86"/>
+      <c r="W67" s="87"/>
     </row>
     <row r="83" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C83" s="23"/>
